--- a/팀C_테이블_정의서.xlsx
+++ b/팀C_테이블_정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B161B-CF02-4A7E-9D7B-1E5DA902C827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A38D21-8FB7-48D0-BA67-BA678EA1CDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="930" windowWidth="23520" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="930" windowWidth="23520" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예약테이블" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
   <si>
     <t>인 덱 스 키</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학생 데이터 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
   </si>
   <si>
     <t>loan_yn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여여부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -334,6 +326,22 @@
   </si>
   <si>
     <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여가능여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 덱 스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력시간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613C02-ED83-47B4-8903-F57B305F7877}">
-  <dimension ref="A1:J920"/>
+  <dimension ref="A1:J921"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -907,7 +918,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -928,14 +939,14 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -947,7 +958,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -990,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -1014,15 +1025,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1058,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
@@ -1075,62 +1088,69 @@
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1148,10 +1168,10 @@
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1160,8 +1180,8 @@
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="3"/>
@@ -1172,7 +1192,7 @@
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="31"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -1185,7 +1205,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="3"/>
@@ -1197,7 +1217,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="3"/>
@@ -1208,8 +1228,8 @@
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="3"/>
@@ -1229,22 +1249,22 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -12017,15 +12037,27 @@
       <c r="I920" s="3"/>
       <c r="J920" s="3"/>
     </row>
+    <row r="921" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A921" s="3"/>
+      <c r="B921" s="3"/>
+      <c r="C921" s="3"/>
+      <c r="D921" s="3"/>
+      <c r="E921" s="3"/>
+      <c r="F921" s="3"/>
+      <c r="G921" s="3"/>
+      <c r="H921" s="3"/>
+      <c r="I921" s="3"/>
+      <c r="J921" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:I10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -12047,10 +12079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFA9A2A-F516-4B66-99E7-EE6BF2378BC8}">
-  <dimension ref="A1:J923"/>
+  <dimension ref="A1:J924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -12086,7 +12118,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -12107,14 +12139,14 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -12126,7 +12158,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -12169,10 +12201,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -12193,15 +12225,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
@@ -12215,15 +12249,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>8</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
@@ -12259,10 +12295,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
@@ -12281,15 +12317,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -12301,10 +12339,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>24</v>
@@ -12320,62 +12358,70 @@
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12393,10 +12439,10 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -12405,8 +12451,8 @@
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="3"/>
@@ -12417,7 +12463,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="31"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -12430,7 +12476,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="3"/>
@@ -12442,7 +12488,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="3"/>
@@ -12453,8 +12499,8 @@
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="3"/>
@@ -12474,22 +12520,22 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -23262,15 +23308,27 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
+    <row r="924" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A924" s="3"/>
+      <c r="B924" s="3"/>
+      <c r="C924" s="3"/>
+      <c r="D924" s="3"/>
+      <c r="E924" s="3"/>
+      <c r="F924" s="3"/>
+      <c r="G924" s="3"/>
+      <c r="H924" s="3"/>
+      <c r="I924" s="3"/>
+      <c r="J924" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -23292,10 +23350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3BA40-98C8-4D99-9995-7FDA1776141A}">
-  <dimension ref="A1:J923"/>
+  <dimension ref="A1:J924"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -23331,7 +23389,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -23352,14 +23410,14 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -23371,7 +23429,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -23414,10 +23472,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
@@ -23438,10 +23496,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -23462,10 +23520,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -23486,10 +23544,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
@@ -23508,15 +23566,17 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
@@ -23530,10 +23590,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>23</v>
@@ -23550,13 +23610,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -23569,62 +23629,69 @@
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -23654,9 +23721,9 @@
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -23666,8 +23733,8 @@
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -23679,7 +23746,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="29"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -23702,7 +23769,7 @@
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="29"/>
       <c r="F23" s="3"/>
@@ -23727,7 +23794,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="29"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -23738,7 +23805,7 @@
     <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
       <c r="F26" s="3"/>
@@ -23747,11 +23814,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -23786,9 +23853,9 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -34511,15 +34578,26 @@
       <c r="I923" s="3"/>
       <c r="J923" s="3"/>
     </row>
+    <row r="924" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A924" s="3"/>
+      <c r="B924" s="3"/>
+      <c r="C924" s="3"/>
+      <c r="D924" s="3"/>
+      <c r="E924" s="3"/>
+      <c r="F924" s="3"/>
+      <c r="G924" s="3"/>
+      <c r="H924" s="3"/>
+      <c r="I924" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -34541,10 +34619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5678DB84-605D-4622-9503-CD9B1BEE33FB}">
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -34580,7 +34658,7 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -34601,14 +34679,14 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -34620,7 +34698,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -34687,7 +34765,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -34733,7 +34811,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>29</v>
@@ -34755,7 +34833,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -34777,15 +34855,17 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4">
+        <v>8</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
@@ -34794,62 +34874,68 @@
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>1</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>7</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -34879,7 +34965,7 @@
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -34891,7 +34977,7 @@
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -34927,7 +35013,7 @@
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -34948,7 +35034,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="28"/>
@@ -34960,10 +35046,10 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -45736,15 +45822,27 @@
       <c r="I922" s="3"/>
       <c r="J922" s="3"/>
     </row>
+    <row r="923" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A923" s="3"/>
+      <c r="B923" s="3"/>
+      <c r="C923" s="3"/>
+      <c r="D923" s="3"/>
+      <c r="E923" s="3"/>
+      <c r="F923" s="3"/>
+      <c r="G923" s="3"/>
+      <c r="H923" s="3"/>
+      <c r="I923" s="3"/>
+      <c r="J923" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
